--- a/dim_reduction.xlsx
+++ b/dim_reduction.xlsx
@@ -466,10 +466,10 @@
         <v>0.8661518661518661</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8082368082368082</v>
+        <v>0.7445302445302445</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7754182754182755</v>
+        <v>0.732947232947233</v>
       </c>
     </row>
     <row r="3">
@@ -483,10 +483,10 @@
         <v>0.8777348777348777</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8423423423423423</v>
+        <v>0.7065637065637066</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8346203346203346</v>
+        <v>0.732947232947233</v>
       </c>
     </row>
     <row r="4">
@@ -500,10 +500,10 @@
         <v>0.8821635544108177</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8081133290405667</v>
+        <v>0.7443657437218287</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8493238892466195</v>
+        <v>0.7450096587250483</v>
       </c>
     </row>
     <row r="5">
@@ -517,10 +517,10 @@
         <v>0.8886027044430135</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8486799742433999</v>
+        <v>0.7218287186091435</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8557630392788153</v>
+        <v>0.7301996136509981</v>
       </c>
     </row>
     <row r="6">
@@ -534,10 +534,10 @@
         <v>0.896973599484868</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8686413393432066</v>
+        <v>0.7675466838377334</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8725048293625242</v>
+        <v>0.7514488087572441</v>
       </c>
     </row>
   </sheetData>
